--- a/results/better results/resultsset2.xlsx
+++ b/results/better results/resultsset2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\better results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A166CBC-D121-429F-A324-B01F275FAE4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07865B9-4CF8-4EB2-91C0-ED7865301687}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="21">
   <si>
     <t>fitness</t>
   </si>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N17"/>
     </sheetView>
   </sheetViews>
@@ -4712,10 +4712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FF8C0C-B6D5-498E-83F6-6BC14E90AEAF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4733,8 +4733,8 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <f>SUM(set!N2:N17)/15</f>
-        <v>0.38241151190303729</v>
+        <f>SUM(set!N2:N17)/16</f>
+        <v>0.35851079240909745</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4753,6 +4753,24 @@
       <c r="B4">
         <f>SUM(set!L2:L17)/15</f>
         <v>79.32789023717244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>SUM(set!G2:G17)/16</f>
+        <v>0.21840581756565947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>SUM(set!F2:F17)/16</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
